--- a/EDA/proc_means.xlsx
+++ b/EDA/proc_means.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Statistics</t>
   </si>
@@ -29,9 +29,6 @@
     <t>name_email_similarity</t>
   </si>
   <si>
-    <t>prev_address_months_count</t>
-  </si>
-  <si>
     <t>current_address_months_count</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>days_since_request</t>
   </si>
   <si>
-    <t>intended_balcon_amount</t>
-  </si>
-  <si>
     <t>zip_count_4w</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>phone_mobile_valid</t>
   </si>
   <si>
-    <t>bank_months_count</t>
-  </si>
-  <si>
     <t>has_other_cards</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
   </si>
   <si>
     <t>device_distinct_emails_8w</t>
-  </si>
-  <si>
-    <t>device_fraud_count</t>
   </si>
   <si>
     <t>month</t>
@@ -504,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:AE19"/>
+  <dimension ref="C3:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:31">
+    <row r="3" spans="3:27">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,292 +571,244 @@
       <c r="AA3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="1" t="s">
+    </row>
+    <row r="4" spans="3:27">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="E4">
+        <v>972571</v>
+      </c>
+      <c r="F4">
+        <v>972571</v>
+      </c>
+      <c r="G4">
+        <v>972571</v>
+      </c>
+      <c r="H4">
+        <v>972571</v>
+      </c>
+      <c r="I4">
+        <v>972571</v>
+      </c>
+      <c r="J4">
+        <v>972571</v>
+      </c>
+      <c r="K4">
+        <v>972571</v>
+      </c>
+      <c r="L4">
+        <v>972571</v>
+      </c>
+      <c r="M4">
+        <v>972571</v>
+      </c>
+      <c r="N4">
+        <v>972571</v>
+      </c>
+      <c r="O4">
+        <v>972571</v>
+      </c>
+      <c r="P4">
+        <v>972571</v>
+      </c>
+      <c r="Q4">
+        <v>972571</v>
+      </c>
+      <c r="R4">
+        <v>972571</v>
+      </c>
+      <c r="S4">
+        <v>972571</v>
+      </c>
+      <c r="T4">
+        <v>972571</v>
+      </c>
+      <c r="U4">
+        <v>972571</v>
+      </c>
+      <c r="V4">
+        <v>972571</v>
+      </c>
+      <c r="W4">
+        <v>972571</v>
+      </c>
+      <c r="X4">
+        <v>972571</v>
+      </c>
+      <c r="Y4">
+        <v>972571</v>
+      </c>
+      <c r="Z4">
+        <v>972571</v>
+      </c>
+      <c r="AA4">
+        <v>972571</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:31">
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1000000</v>
-      </c>
-      <c r="F4">
-        <v>1000000</v>
-      </c>
-      <c r="G4">
-        <v>1000000</v>
-      </c>
-      <c r="H4">
-        <v>1000000</v>
-      </c>
-      <c r="I4">
-        <v>1000000</v>
-      </c>
-      <c r="J4">
-        <v>1000000</v>
-      </c>
-      <c r="K4">
-        <v>1000000</v>
-      </c>
-      <c r="L4">
-        <v>1000000</v>
-      </c>
-      <c r="M4">
-        <v>1000000</v>
-      </c>
-      <c r="N4">
-        <v>1000000</v>
-      </c>
-      <c r="O4">
-        <v>1000000</v>
-      </c>
-      <c r="P4">
-        <v>1000000</v>
-      </c>
-      <c r="Q4">
-        <v>1000000</v>
-      </c>
-      <c r="R4">
-        <v>1000000</v>
-      </c>
-      <c r="S4">
-        <v>1000000</v>
-      </c>
-      <c r="T4">
-        <v>1000000</v>
-      </c>
-      <c r="U4">
-        <v>1000000</v>
-      </c>
-      <c r="V4">
-        <v>1000000</v>
-      </c>
-      <c r="W4">
-        <v>1000000</v>
-      </c>
-      <c r="X4">
-        <v>1000000</v>
-      </c>
-      <c r="Y4">
-        <v>1000000</v>
-      </c>
-      <c r="Z4">
-        <v>1000000</v>
-      </c>
-      <c r="AA4">
-        <v>1000000</v>
-      </c>
-      <c r="AB4">
-        <v>1000000</v>
-      </c>
-      <c r="AC4">
-        <v>1000000</v>
-      </c>
-      <c r="AD4">
-        <v>1000000</v>
-      </c>
-      <c r="AE4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:31">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5">
-        <v>0.011029</v>
+        <v>0.01122900024779682</v>
       </c>
       <c r="F5">
-        <v>0.5626956000000001</v>
+        <v>0.565821518428989</v>
       </c>
       <c r="G5">
-        <v>0.4936940949631276</v>
+        <v>0.4922813338058499</v>
       </c>
       <c r="H5">
-        <v>60.71996655984395</v>
+        <v>86.34542053999142</v>
       </c>
       <c r="I5">
-        <v>86.96205759300062</v>
+        <v>34.20342576531688</v>
       </c>
       <c r="J5">
-        <v>34.19690034759498</v>
+        <v>1.010981639883999</v>
       </c>
       <c r="K5">
-        <v>1.025705230995807</v>
+        <v>1576.139164133004</v>
       </c>
       <c r="L5">
-        <v>36.58249599376843</v>
+        <v>5665.978856222568</v>
       </c>
       <c r="M5">
-        <v>1572.692049</v>
+        <v>4770.129277106546</v>
       </c>
       <c r="N5">
-        <v>5665.29660479527</v>
+        <v>4859.254411505149</v>
       </c>
       <c r="O5">
-        <v>4769.799213203821</v>
+        <v>185.0664311397317</v>
       </c>
       <c r="P5">
-        <v>4856.324015811875</v>
+        <v>9.525770355069193</v>
       </c>
       <c r="Q5">
-        <v>184.361849</v>
+        <v>131.484831441612</v>
       </c>
       <c r="R5">
-        <v>9.503544</v>
+        <v>0.5320321087098011</v>
       </c>
       <c r="S5">
-        <v>130.989595</v>
+        <v>0.4198911956042284</v>
       </c>
       <c r="T5">
-        <v>0.529886</v>
+        <v>0.8887083822157971</v>
       </c>
       <c r="U5">
-        <v>0.417077</v>
+        <v>0.2267680200211604</v>
       </c>
       <c r="V5">
-        <v>0.889676</v>
+        <v>519.5159427949219</v>
       </c>
       <c r="W5">
-        <v>14.86261815599606</v>
+        <v>0.02548914166677806</v>
       </c>
       <c r="X5">
-        <v>0.222988</v>
+        <v>7.526714020814571</v>
       </c>
       <c r="Y5">
-        <v>515.9041323735769</v>
+        <v>0.5795936749090812</v>
       </c>
       <c r="Z5">
-        <v>0.025242</v>
+        <v>1.020280267456052</v>
       </c>
       <c r="AA5">
-        <v>7.562193020225751</v>
-      </c>
-      <c r="AB5">
-        <v>0.576947</v>
-      </c>
-      <c r="AC5">
-        <v>1.019036834223486</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>3.288674</v>
-      </c>
-    </row>
-    <row r="6" spans="3:31">
+        <v>3.281182556337789</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27">
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0.1044383649159532</v>
+        <v>0.1053704000997593</v>
       </c>
       <c r="F6">
-        <v>0.2903426011450349</v>
+        <v>0.2895636355285673</v>
       </c>
       <c r="G6">
-        <v>0.2891247999953648</v>
+        <v>0.2893344755829562</v>
       </c>
       <c r="H6">
-        <v>63.578186792232</v>
+        <v>88.01648322060505</v>
       </c>
       <c r="I6">
-        <v>88.40928873407148</v>
+        <v>11.63434654378219</v>
       </c>
       <c r="J6">
-        <v>11.63754037556415</v>
+        <v>5.346794146103341</v>
       </c>
       <c r="K6">
-        <v>5.381834634593099</v>
+        <v>1006.126113991235</v>
       </c>
       <c r="L6">
-        <v>23.23688518524316</v>
+        <v>3007.181420748347</v>
       </c>
       <c r="M6">
-        <v>1005.374564957348</v>
+        <v>1477.255165496728</v>
       </c>
       <c r="N6">
-        <v>3009.380665329879</v>
+        <v>918.8996416415679</v>
       </c>
       <c r="O6">
-        <v>1479.196197603666</v>
+        <v>459.9328688597516</v>
       </c>
       <c r="P6">
-        <v>919.8439342098882</v>
+        <v>5.053048510865775</v>
       </c>
       <c r="Q6">
-        <v>459.6253290167084</v>
+        <v>69.85610398132586</v>
       </c>
       <c r="R6">
-        <v>5.033791888740834</v>
+        <v>0.4989731455796785</v>
       </c>
       <c r="S6">
-        <v>69.68181240678058</v>
+        <v>0.4935411126892493</v>
       </c>
       <c r="T6">
-        <v>0.4991062773714212</v>
+        <v>0.3144930766942856</v>
       </c>
       <c r="U6">
-        <v>0.4930760785042817</v>
+        <v>0.4187415257703072</v>
       </c>
       <c r="V6">
-        <v>0.3132933340778449</v>
+        <v>489.4233745314929</v>
       </c>
       <c r="W6">
-        <v>11.52784726410562</v>
+        <v>0.1576054277753035</v>
       </c>
       <c r="X6">
-        <v>0.4162505557020698</v>
+        <v>7.994476286729509</v>
       </c>
       <c r="Y6">
-        <v>487.5818894499598</v>
+        <v>0.4936244498110797</v>
       </c>
       <c r="Z6">
-        <v>0.1568593830165783</v>
+        <v>0.1735990784586298</v>
       </c>
       <c r="AA6">
-        <v>8.032021417421676</v>
-      </c>
-      <c r="AB6">
-        <v>0.4940439284823728</v>
-      </c>
-      <c r="AC6">
-        <v>0.1767002244293834</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>2.209994164209917</v>
-      </c>
-    </row>
-    <row r="7" spans="3:31">
+        <v>2.20760449219661</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27">
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,40 +820,40 @@
         <v>1.434550484527564E-06</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>4.036859788721786E-09</v>
       </c>
       <c r="K7">
-        <v>4.036859788721786E-09</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>5.428451083355768E-05</v>
+        <v>-170.6030723512463</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>1348.830317715748</v>
       </c>
       <c r="N7">
-        <v>-170.6030723512463</v>
+        <v>2825.748405284728</v>
       </c>
       <c r="O7">
-        <v>1348.830317715748</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2825.748405284728</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-169</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -922,42 +862,30 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.0008720274159186</v>
       </c>
       <c r="Y7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0008720274159186</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27">
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,43 +894,43 @@
         <v>0.1</v>
       </c>
       <c r="G8">
-        <v>0.02167216528138257</v>
+        <v>0.02155063477362763</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>0.0002821303539793701</v>
       </c>
       <c r="K8">
-        <v>0.000282556307079593</v>
+        <v>252</v>
       </c>
       <c r="L8">
-        <v>1.530907653937058</v>
+        <v>694.1840388521284</v>
       </c>
       <c r="M8">
-        <v>248</v>
+        <v>2023.865973874346</v>
       </c>
       <c r="N8">
-        <v>695.5937495835973</v>
+        <v>3059.870730989147</v>
       </c>
       <c r="O8">
-        <v>2021.469537614789</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3059.832982405268</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1011,42 +939,30 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.707672010328958</v>
       </c>
       <c r="Y8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.7098876473383772</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27">
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,43 +971,43 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>0.06808598544094406</v>
+        <v>0.0676946571150434</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0.00141997705689235</v>
       </c>
       <c r="K9">
-        <v>0.00142300746203365</v>
+        <v>481</v>
       </c>
       <c r="L9">
-        <v>7.508365168291782</v>
+        <v>1269.758703349502</v>
       </c>
       <c r="M9">
-        <v>478</v>
+        <v>2575.133552549908</v>
       </c>
       <c r="N9">
-        <v>1273.448890595879</v>
+        <v>3118.717871760962</v>
       </c>
       <c r="O9">
-        <v>2572.557783386144</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3118.17926528166</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1100,42 +1016,30 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.270591931407025</v>
       </c>
       <c r="Y9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.273085761415722</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27">
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,43 +1048,43 @@
         <v>0.1</v>
       </c>
       <c r="G10">
-        <v>0.1070879407948009</v>
+        <v>0.1064634433531064</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>0.002848311096516</v>
       </c>
       <c r="K10">
-        <v>0.002851874317126231</v>
+        <v>627</v>
       </c>
       <c r="L10">
-        <v>11.81517488086471</v>
+        <v>1823.356487276906</v>
       </c>
       <c r="M10">
-        <v>623</v>
+        <v>2902.125524300101</v>
       </c>
       <c r="N10">
-        <v>1828.024029569768</v>
+        <v>3515.318703758541</v>
       </c>
       <c r="O10">
-        <v>2900.016181630756</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>3495.950783155472</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1189,42 +1093,30 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.697196979608413</v>
       </c>
       <c r="Y10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.701365349599231</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27">
       <c r="C11" s="1">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,87 +1125,75 @@
         <v>0.3</v>
       </c>
       <c r="G11">
-        <v>0.2252163210725268</v>
+        <v>0.2236083049697298</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>20</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>0.00718703587542285</v>
       </c>
       <c r="K11">
-        <v>0.00719324625376785</v>
+        <v>897</v>
       </c>
       <c r="L11">
-        <v>20.4032357726723</v>
+        <v>3439.669532066451</v>
       </c>
       <c r="M11">
-        <v>894</v>
+        <v>3596.629081769772</v>
       </c>
       <c r="N11">
-        <v>3436.365847992701</v>
+        <v>4269.016109807027</v>
       </c>
       <c r="O11">
-        <v>3593.199382362892</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>4268.368422847567</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>3.10454969055148</v>
       </c>
       <c r="Y11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>3.117641585080837</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27">
       <c r="C12" s="1">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1322,43 +1202,43 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="G12">
-        <v>0.4921525275151668</v>
+        <v>0.4897880905320399</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I12">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>0.0151552294865248</v>
       </c>
       <c r="K12">
-        <v>0.01517573771524205</v>
+        <v>1265</v>
       </c>
       <c r="L12">
-        <v>32.43370131149847</v>
+        <v>5327.783612253841</v>
       </c>
       <c r="M12">
-        <v>1263</v>
+        <v>4749.567085333521</v>
       </c>
       <c r="N12">
-        <v>5319.769349162381</v>
+        <v>4914.806020443702</v>
       </c>
       <c r="O12">
-        <v>4749.930792335455</v>
+        <v>9</v>
       </c>
       <c r="P12">
-        <v>4913.436940627085</v>
+        <v>9</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1367,42 +1247,30 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="W12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>5.101695025079279</v>
       </c>
       <c r="Y12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>5.122832390126673</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:31">
+    <row r="13" spans="3:27">
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1411,87 +1279,75 @@
         <v>0.8</v>
       </c>
       <c r="G13">
-        <v>0.7555673081839434</v>
+        <v>0.7547283506966371</v>
       </c>
       <c r="H13">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="I13">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>40</v>
+        <v>0.026260255739475</v>
       </c>
       <c r="K13">
-        <v>0.0263306875349307</v>
+        <v>1950</v>
       </c>
       <c r="L13">
-        <v>49.58625266976868</v>
+        <v>7680.244656164896</v>
       </c>
       <c r="M13">
-        <v>1944</v>
+        <v>5751.116055295743</v>
       </c>
       <c r="N13">
-        <v>7680.717827395818</v>
+        <v>5488.801020364067</v>
       </c>
       <c r="O13">
-        <v>5752.579703927817</v>
+        <v>26</v>
       </c>
       <c r="P13">
-        <v>5488.083356427494</v>
+        <v>13</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="W13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>8.833746581881289</v>
       </c>
       <c r="Y13">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>8.878214837632044</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:31">
+    <row r="14" spans="3:27">
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1500,43 +1356,43 @@
         <v>0.9</v>
       </c>
       <c r="G14">
-        <v>0.8830969454248329</v>
+        <v>0.8827026659883292</v>
       </c>
       <c r="H14">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="I14">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>0.0464767933328677</v>
       </c>
       <c r="K14">
-        <v>0.04759447514856131</v>
+        <v>3033</v>
       </c>
       <c r="L14">
-        <v>52.04055130672503</v>
+        <v>9631.430265557858</v>
       </c>
       <c r="M14">
-        <v>3029</v>
+        <v>6818.205836826582</v>
       </c>
       <c r="N14">
-        <v>9638.82716029213</v>
+        <v>6003.957815332666</v>
       </c>
       <c r="O14">
-        <v>6820.75175034536</v>
+        <v>753</v>
       </c>
       <c r="P14">
-        <v>6001.663077965663</v>
+        <v>16</v>
       </c>
       <c r="Q14">
-        <v>750</v>
+        <v>227</v>
       </c>
       <c r="R14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1545,42 +1401,30 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="W14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>15.53967810186772</v>
       </c>
       <c r="Y14">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>15.60150893686765</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:31">
+    <row r="15" spans="3:27">
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1589,43 +1433,43 @@
         <v>0.9</v>
       </c>
       <c r="G15">
-        <v>0.9180733752025414</v>
+        <v>0.9179055461217646</v>
       </c>
       <c r="H15">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="I15">
-        <v>277</v>
+        <v>50</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>6.515272983290103</v>
       </c>
       <c r="K15">
-        <v>6.682272321046522</v>
+        <v>3681</v>
       </c>
       <c r="L15">
-        <v>99.10920974001085</v>
+        <v>11222.56088296238</v>
       </c>
       <c r="M15">
-        <v>3677</v>
+        <v>7348.188163504046</v>
       </c>
       <c r="N15">
-        <v>11234.6298099822</v>
+        <v>6463.01061686685</v>
       </c>
       <c r="O15">
-        <v>7348.993181687568</v>
+        <v>1463</v>
       </c>
       <c r="P15">
-        <v>6458.320092888199</v>
+        <v>19</v>
       </c>
       <c r="Q15">
-        <v>1463</v>
+        <v>256</v>
       </c>
       <c r="R15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1634,42 +1478,30 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="W15">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>21.59539824310561</v>
       </c>
       <c r="Y15">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>21.72497646664813</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:31">
+    <row r="16" spans="3:27">
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1678,43 +1510,43 @@
         <v>0.9</v>
       </c>
       <c r="G16">
-        <v>0.997469799640499</v>
+        <v>0.9974790840923907</v>
       </c>
       <c r="H16">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="I16">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="J16">
-        <v>60</v>
+        <v>21.81566027014427</v>
       </c>
       <c r="K16">
-        <v>21.99566602358331</v>
+        <v>4974</v>
       </c>
       <c r="L16">
-        <v>105.7088210653077</v>
+        <v>13927.14451121532</v>
       </c>
       <c r="M16">
-        <v>4970</v>
+        <v>8593.795461373951</v>
       </c>
       <c r="N16">
-        <v>13932.18784749249</v>
+        <v>6779.352242606676</v>
       </c>
       <c r="O16">
-        <v>8597.051993786603</v>
+        <v>1974</v>
       </c>
       <c r="P16">
-        <v>6779.328391263708</v>
+        <v>23</v>
       </c>
       <c r="Q16">
-        <v>1974</v>
+        <v>306</v>
       </c>
       <c r="R16">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1723,42 +1555,30 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="W16">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>44.32968562500901</v>
       </c>
       <c r="Y16">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>44.5758285562164</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:31">
+    <row r="17" spans="3:27">
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1770,40 +1590,40 @@
         <v>0.9999993177937188</v>
       </c>
       <c r="H17">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="I17">
-        <v>428</v>
+        <v>90</v>
       </c>
       <c r="J17">
-        <v>90</v>
+        <v>78.45690383509861</v>
       </c>
       <c r="K17">
-        <v>78.45690383509861</v>
+        <v>6700</v>
       </c>
       <c r="L17">
-        <v>112.9569276953714</v>
+        <v>16715.56540417427</v>
       </c>
       <c r="M17">
-        <v>6700</v>
+        <v>9506.896596111665</v>
       </c>
       <c r="N17">
-        <v>16715.56540417427</v>
+        <v>6994.764200834217</v>
       </c>
       <c r="O17">
-        <v>9506.896596111665</v>
+        <v>2385</v>
       </c>
       <c r="P17">
-        <v>6994.764200834217</v>
+        <v>39</v>
       </c>
       <c r="Q17">
-        <v>2385</v>
+        <v>389</v>
       </c>
       <c r="R17">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1812,42 +1632,30 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2100</v>
       </c>
       <c r="W17">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>83.37677457857882</v>
       </c>
       <c r="Y17">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>85.89914319274027</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:31">
+    <row r="18" spans="3:27">
       <c r="C18" s="1">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1859,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>712920</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4254</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20987</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>742523</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1880,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1904,39 +1712,27 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>253635</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>2015</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>359</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="1">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1948,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>71.292</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4254</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2.0987</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>74.25230000000001</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1969,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1993,30 +1789,18 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>25.3635</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.0163</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.2015</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0.0359</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
         <v>0</v>
       </c>
     </row>
@@ -2027,13 +1811,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:AE19"/>
+  <dimension ref="C3:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:31">
+    <row r="3" spans="3:27">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2106,292 +1890,244 @@
       <c r="AA3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="1" t="s">
+    </row>
+    <row r="4" spans="3:27">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="E4">
+        <v>10921</v>
+      </c>
+      <c r="F4">
+        <v>10921</v>
+      </c>
+      <c r="G4">
+        <v>10921</v>
+      </c>
+      <c r="H4">
+        <v>10921</v>
+      </c>
+      <c r="I4">
+        <v>10921</v>
+      </c>
+      <c r="J4">
+        <v>10921</v>
+      </c>
+      <c r="K4">
+        <v>10921</v>
+      </c>
+      <c r="L4">
+        <v>10921</v>
+      </c>
+      <c r="M4">
+        <v>10921</v>
+      </c>
+      <c r="N4">
+        <v>10921</v>
+      </c>
+      <c r="O4">
+        <v>10921</v>
+      </c>
+      <c r="P4">
+        <v>10921</v>
+      </c>
+      <c r="Q4">
+        <v>10921</v>
+      </c>
+      <c r="R4">
+        <v>10921</v>
+      </c>
+      <c r="S4">
+        <v>10921</v>
+      </c>
+      <c r="T4">
+        <v>10921</v>
+      </c>
+      <c r="U4">
+        <v>10921</v>
+      </c>
+      <c r="V4">
+        <v>10921</v>
+      </c>
+      <c r="W4">
+        <v>10921</v>
+      </c>
+      <c r="X4">
+        <v>10921</v>
+      </c>
+      <c r="Y4">
+        <v>10921</v>
+      </c>
+      <c r="Z4">
+        <v>10921</v>
+      </c>
+      <c r="AA4">
+        <v>10921</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:31">
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>11029</v>
-      </c>
-      <c r="F4">
-        <v>11029</v>
-      </c>
-      <c r="G4">
-        <v>11029</v>
-      </c>
-      <c r="H4">
-        <v>11029</v>
-      </c>
-      <c r="I4">
-        <v>11029</v>
-      </c>
-      <c r="J4">
-        <v>11029</v>
-      </c>
-      <c r="K4">
-        <v>11029</v>
-      </c>
-      <c r="L4">
-        <v>11029</v>
-      </c>
-      <c r="M4">
-        <v>11029</v>
-      </c>
-      <c r="N4">
-        <v>11029</v>
-      </c>
-      <c r="O4">
-        <v>11029</v>
-      </c>
-      <c r="P4">
-        <v>11029</v>
-      </c>
-      <c r="Q4">
-        <v>11029</v>
-      </c>
-      <c r="R4">
-        <v>11029</v>
-      </c>
-      <c r="S4">
-        <v>11029</v>
-      </c>
-      <c r="T4">
-        <v>11029</v>
-      </c>
-      <c r="U4">
-        <v>11029</v>
-      </c>
-      <c r="V4">
-        <v>11029</v>
-      </c>
-      <c r="W4">
-        <v>11029</v>
-      </c>
-      <c r="X4">
-        <v>11029</v>
-      </c>
-      <c r="Y4">
-        <v>11029</v>
-      </c>
-      <c r="Z4">
-        <v>11029</v>
-      </c>
-      <c r="AA4">
-        <v>11029</v>
-      </c>
-      <c r="AB4">
-        <v>11029</v>
-      </c>
-      <c r="AC4">
-        <v>11029</v>
-      </c>
-      <c r="AD4">
-        <v>11029</v>
-      </c>
-      <c r="AE4">
-        <v>11029</v>
-      </c>
-    </row>
-    <row r="5" spans="3:31">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6866352343820836</v>
+        <v>0.6877666880322315</v>
       </c>
       <c r="G5">
-        <v>0.3931614280268854</v>
+        <v>0.3931568990545429</v>
       </c>
       <c r="H5">
-        <v>83.55195530726257</v>
+        <v>114.8285871257211</v>
       </c>
       <c r="I5">
-        <v>114.9483431684067</v>
+        <v>41.0630894606721</v>
       </c>
       <c r="J5">
-        <v>41.06709265175719</v>
+        <v>1.045787237793527</v>
       </c>
       <c r="K5">
-        <v>1.054615418593586</v>
+        <v>1623.262155480267</v>
       </c>
       <c r="L5">
-        <v>41.47179021873295</v>
+        <v>5183.097121933066</v>
       </c>
       <c r="M5">
-        <v>1622.311542297579</v>
+        <v>4613.777629050148</v>
       </c>
       <c r="N5">
-        <v>5183.913444449581</v>
+        <v>4756.657430791588</v>
       </c>
       <c r="O5">
-        <v>4613.138798160983</v>
+        <v>134.6488416811647</v>
       </c>
       <c r="P5">
-        <v>4755.844184841342</v>
+        <v>7.442358758355462</v>
       </c>
       <c r="Q5">
-        <v>133.9764257865627</v>
+        <v>177.8883801849647</v>
       </c>
       <c r="R5">
-        <v>7.443195212621271</v>
+        <v>0.6612947532277264</v>
       </c>
       <c r="S5">
-        <v>177.5903527065011</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="T5">
-        <v>0.6610753468129477</v>
+        <v>0.8500137350059518</v>
       </c>
       <c r="U5">
-        <v>0.2530601142442651</v>
+        <v>0.08506547019503709</v>
       </c>
       <c r="V5">
-        <v>0.8505757548281803</v>
+        <v>836.9425876751213</v>
       </c>
       <c r="W5">
-        <v>17.36231673682683</v>
+        <v>0.05054482190275616</v>
       </c>
       <c r="X5">
-        <v>0.08441381811587632</v>
+        <v>8.211319933828362</v>
       </c>
       <c r="Y5">
-        <v>834.0451577801958</v>
+        <v>0.3425510484387876</v>
       </c>
       <c r="Z5">
-        <v>0.05032187868347085</v>
+        <v>1.081769068766596</v>
       </c>
       <c r="AA5">
-        <v>8.244607545803387</v>
-      </c>
-      <c r="AB5">
-        <v>0.3416447547375102</v>
-      </c>
-      <c r="AC5">
-        <v>1.080181405895692</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>3.565962462598604</v>
-      </c>
-    </row>
-    <row r="6" spans="3:31">
+        <v>3.565149711564875</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27">
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2655791492331988</v>
+        <v>0.2651811236578034</v>
       </c>
       <c r="G6">
-        <v>0.2956072669036087</v>
+        <v>0.2955750406992623</v>
       </c>
       <c r="H6">
-        <v>81.90595451415582</v>
+        <v>85.29340929919999</v>
       </c>
       <c r="I6">
-        <v>85.27855403556538</v>
+        <v>12.87854482429382</v>
       </c>
       <c r="J6">
-        <v>12.88148278606465</v>
+        <v>5.684858529542829</v>
       </c>
       <c r="K6">
-        <v>5.707977423490471</v>
+        <v>1005.447239088437</v>
       </c>
       <c r="L6">
-        <v>28.00251223255658</v>
+        <v>2905.08490456078</v>
       </c>
       <c r="M6">
-        <v>1005.687070793738</v>
+        <v>1437.14426335397</v>
       </c>
       <c r="N6">
-        <v>2902.298679216668</v>
+        <v>975.4585724385032</v>
       </c>
       <c r="O6">
-        <v>1436.521551419373</v>
+        <v>417.3666958675689</v>
       </c>
       <c r="P6">
-        <v>975.6631563822218</v>
+        <v>4.85785083434951</v>
       </c>
       <c r="Q6">
-        <v>416.350610620403</v>
+        <v>81.88461401510916</v>
       </c>
       <c r="R6">
-        <v>4.848911100935154</v>
+        <v>0.4732911513400092</v>
       </c>
       <c r="S6">
-        <v>81.91034825803533</v>
+        <v>0.435165587590321</v>
       </c>
       <c r="T6">
-        <v>0.4733656615613546</v>
+        <v>0.3570743063437782</v>
       </c>
       <c r="U6">
-        <v>0.4347848121691997</v>
+        <v>0.2789918694229425</v>
       </c>
       <c r="V6">
-        <v>0.3565223205221777</v>
+        <v>643.473689803347</v>
       </c>
       <c r="W6">
-        <v>11.78364075833993</v>
+        <v>0.2190763281921306</v>
       </c>
       <c r="X6">
-        <v>0.2780200240643359</v>
+        <v>9.627686639673641</v>
       </c>
       <c r="Y6">
-        <v>643.2874896727061</v>
+        <v>0.4745845038166044</v>
       </c>
       <c r="Z6">
-        <v>0.2186182075822747</v>
+        <v>0.3162249022300677</v>
       </c>
       <c r="AA6">
-        <v>9.681812150308534</v>
-      </c>
-      <c r="AB6">
-        <v>0.4742826288017041</v>
-      </c>
-      <c r="AC6">
-        <v>0.3180468727133596</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>2.312055078481535</v>
-      </c>
-    </row>
-    <row r="7" spans="3:31">
+        <v>2.311222342427965</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27">
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2403,40 +2139,40 @@
         <v>0.000132000148784</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>1.013114140563224E-06</v>
       </c>
       <c r="K7">
-        <v>1.013114140563224E-06</v>
+        <v>18</v>
       </c>
       <c r="L7">
-        <v>0.0018033469039544</v>
+        <v>64.42257069034851</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>1440.568312624846</v>
       </c>
       <c r="N7">
-        <v>64.42257069034851</v>
+        <v>2863.783336049241</v>
       </c>
       <c r="O7">
-        <v>1440.568312624846</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2863.783336049241</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-97</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2445,42 +2181,30 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.0612966853746423</v>
       </c>
       <c r="Y7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0612966853746423</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27">
       <c r="C8" s="1">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2489,43 +2213,43 @@
         <v>0.1</v>
       </c>
       <c r="G8">
-        <v>0.01368907849386398</v>
+        <v>0.0136292448286858</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>0.00022116991272314</v>
       </c>
       <c r="K8">
-        <v>0.000221197277381636</v>
+        <v>268.4</v>
       </c>
       <c r="L8">
-        <v>0.04902154716747747</v>
+        <v>561.5796787819108</v>
       </c>
       <c r="M8">
-        <v>267.28</v>
+        <v>1997.029760329519</v>
       </c>
       <c r="N8">
-        <v>562.4597397919694</v>
+        <v>3047.470879595522</v>
       </c>
       <c r="O8">
-        <v>1997.231734345916</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3047.380382962949</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2534,42 +2258,30 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.7434085348641155</v>
       </c>
       <c r="Y8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.7450231740444229</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27">
       <c r="C9" s="1">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2578,43 +2290,43 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>0.04478436057491057</v>
+        <v>0.0446971006018503</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0.0011162918928822</v>
       </c>
       <c r="K9">
-        <v>0.00111700206355952</v>
+        <v>510</v>
       </c>
       <c r="L9">
-        <v>8.466711447421849</v>
+        <v>1097.453670106193</v>
       </c>
       <c r="M9">
-        <v>509</v>
+        <v>2474.835584934516</v>
       </c>
       <c r="N9">
-        <v>1099.012843974571</v>
+        <v>3098.594495654864</v>
       </c>
       <c r="O9">
-        <v>2474.890047747336</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>3098.671197727387</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2623,42 +2335,30 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.310961603925222</v>
       </c>
       <c r="Y9">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.31472081804298</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27">
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2667,43 +2367,43 @@
         <v>0.2</v>
       </c>
       <c r="G10">
-        <v>0.07076776031697249</v>
+        <v>0.070711650563703</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>0.002290238356949</v>
       </c>
       <c r="K10">
-        <v>0.00229624950309382</v>
+        <v>646</v>
       </c>
       <c r="L10">
-        <v>12.4205901238769</v>
+        <v>1542.957808310363</v>
       </c>
       <c r="M10">
-        <v>645</v>
+        <v>2765.513971698713</v>
       </c>
       <c r="N10">
-        <v>1544.647594964185</v>
+        <v>3154.570856271685</v>
       </c>
       <c r="O10">
-        <v>2765.932939795773</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>3153.749111330239</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2712,42 +2412,30 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.781166165812959</v>
       </c>
       <c r="Y10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.782017004862739</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27">
       <c r="C11" s="1">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2756,87 +2444,75 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="G11">
-        <v>0.1342572702208903</v>
+        <v>0.1343062365613783</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>0.005907133935545</v>
       </c>
       <c r="K11">
-        <v>0.0059108616131152</v>
+        <v>910</v>
       </c>
       <c r="L11">
-        <v>21.73234367955653</v>
+        <v>2888.570506623644</v>
       </c>
       <c r="M11">
-        <v>909</v>
+        <v>3389.937845626909</v>
       </c>
       <c r="N11">
-        <v>2894.349365592516</v>
+        <v>4192.592330638966</v>
       </c>
       <c r="O11">
-        <v>3387.940196402747</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>4192.268272377579</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>3.256180558347021</v>
       </c>
       <c r="Y11">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>3.262964158126051</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:31">
+    <row r="12" spans="3:27">
       <c r="C12" s="1">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2848,40 +2524,40 @@
         <v>0.2924198502300904</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="I12">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>40</v>
+        <v>0.0130741155008194</v>
       </c>
       <c r="K12">
-        <v>0.0130937430996977</v>
+        <v>1329</v>
       </c>
       <c r="L12">
-        <v>34.70264688784764</v>
+        <v>4917.206330220612</v>
       </c>
       <c r="M12">
-        <v>1328</v>
+        <v>4666.226047307618</v>
       </c>
       <c r="N12">
-        <v>4916.464727580651</v>
+        <v>4828.153162001396</v>
       </c>
       <c r="O12">
-        <v>4665.725850704707</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>4827.69522003387</v>
+        <v>7</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -2890,42 +2566,30 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="W12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>5.112960275499722</v>
       </c>
       <c r="Y12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>5.129334757399167</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:31">
+    <row r="13" spans="3:27">
       <c r="C13" s="1">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2934,87 +2598,75 @@
         <v>0.9</v>
       </c>
       <c r="G13">
-        <v>0.6765425359471179</v>
+        <v>0.676592873076829</v>
       </c>
       <c r="H13">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="I13">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>50</v>
+        <v>0.023211316008803</v>
       </c>
       <c r="K13">
-        <v>0.0232653636397924</v>
+        <v>2053</v>
       </c>
       <c r="L13">
-        <v>50.33895095094763</v>
+        <v>7131.389124435103</v>
       </c>
       <c r="M13">
-        <v>2050</v>
+        <v>5584.970982897065</v>
       </c>
       <c r="N13">
-        <v>7128.603280953718</v>
+        <v>5416.177857758873</v>
       </c>
       <c r="O13">
-        <v>5583.593254415442</v>
+        <v>15</v>
       </c>
       <c r="P13">
-        <v>5415.337589536516</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="W13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>8.614371488280772</v>
       </c>
       <c r="Y13">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>8.639492749518606</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:31">
+    <row r="14" spans="3:27">
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3023,87 +2675,75 @@
         <v>0.9</v>
       </c>
       <c r="G14">
-        <v>0.8495550306942767</v>
+        <v>0.8493620315247606</v>
       </c>
       <c r="H14">
-        <v>215.4000000000001</v>
+        <v>235</v>
       </c>
       <c r="I14">
-        <v>235.6000000000004</v>
+        <v>60</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>0.8499921469284517</v>
       </c>
       <c r="K14">
-        <v>0.9068285096547744</v>
+        <v>3069</v>
       </c>
       <c r="L14">
-        <v>98.48215270225275</v>
+        <v>9012.508893782096</v>
       </c>
       <c r="M14">
-        <v>3069.200000000001</v>
+        <v>6525.309632448015</v>
       </c>
       <c r="N14">
-        <v>9009.683396051523</v>
+        <v>6184.83780846741</v>
       </c>
       <c r="O14">
-        <v>6524.870330806541</v>
+        <v>230</v>
       </c>
       <c r="P14">
-        <v>6188.572664357711</v>
+        <v>14</v>
       </c>
       <c r="Q14">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="W14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>17.93965910243736</v>
       </c>
       <c r="Y14">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>18.02319008967462</v>
-      </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:31">
+    <row r="15" spans="3:27">
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3112,43 +2752,43 @@
         <v>0.9</v>
       </c>
       <c r="G15">
-        <v>0.8938720532802781</v>
+        <v>0.893618247598512</v>
       </c>
       <c r="H15">
-        <v>288.3</v>
+        <v>297</v>
       </c>
       <c r="I15">
-        <v>297</v>
+        <v>60</v>
       </c>
       <c r="J15">
-        <v>60</v>
+        <v>3.525159920077367</v>
       </c>
       <c r="K15">
-        <v>3.551974022111295</v>
+        <v>3686</v>
       </c>
       <c r="L15">
-        <v>102.5955025477321</v>
+        <v>10116.57520978245</v>
       </c>
       <c r="M15">
-        <v>3686</v>
+        <v>7156.256953272168</v>
       </c>
       <c r="N15">
-        <v>10115.29753779223</v>
+        <v>6616.28669680657</v>
       </c>
       <c r="O15">
-        <v>7155.932004376224</v>
+        <v>1399</v>
       </c>
       <c r="P15">
-        <v>6615.296616445556</v>
+        <v>17</v>
       </c>
       <c r="Q15">
-        <v>1397.6</v>
+        <v>310</v>
       </c>
       <c r="R15">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -3157,42 +2797,30 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="W15">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>28.98949372766277</v>
       </c>
       <c r="Y15">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>29.0786436643407</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:31">
+    <row r="16" spans="3:27">
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3201,43 +2829,43 @@
         <v>0.9</v>
       </c>
       <c r="G16">
-        <v>0.9956893478098513</v>
+        <v>0.9956896179295667</v>
       </c>
       <c r="H16">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="I16">
-        <v>373</v>
+        <v>70</v>
       </c>
       <c r="J16">
-        <v>70</v>
+        <v>23.76184367949184</v>
       </c>
       <c r="K16">
-        <v>23.87530867050014</v>
+        <v>4853.999999999993</v>
       </c>
       <c r="L16">
-        <v>107.6203346463681</v>
+        <v>13544.55079010296</v>
       </c>
       <c r="M16">
-        <v>4853.199999999993</v>
+        <v>8125.030968403536</v>
       </c>
       <c r="N16">
-        <v>13529.95087941387</v>
+        <v>6767.382530067038</v>
       </c>
       <c r="O16">
-        <v>8107.501259287798</v>
+        <v>1966.799999999999</v>
       </c>
       <c r="P16">
-        <v>6767.032227149032</v>
+        <v>22</v>
       </c>
       <c r="Q16">
-        <v>1966</v>
+        <v>340</v>
       </c>
       <c r="R16">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -3246,42 +2874,30 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="W16">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>52.32564730102494</v>
       </c>
       <c r="Y16">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>52.54463409662078</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:31">
+    <row r="17" spans="3:27">
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3293,40 +2909,40 @@
         <v>0.9999532132177624</v>
       </c>
       <c r="H17">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="I17">
-        <v>392</v>
+        <v>90</v>
       </c>
       <c r="J17">
-        <v>90</v>
+        <v>75.49592130936621</v>
       </c>
       <c r="K17">
-        <v>75.49592130936621</v>
+        <v>6368</v>
       </c>
       <c r="L17">
-        <v>111.3212717733923</v>
+        <v>16084.617169503</v>
       </c>
       <c r="M17">
-        <v>6368</v>
+        <v>9307.012144865505</v>
       </c>
       <c r="N17">
-        <v>16084.617169503</v>
+        <v>6889.977775445356</v>
       </c>
       <c r="O17">
-        <v>9307.012144865505</v>
+        <v>2266</v>
       </c>
       <c r="P17">
-        <v>6889.977775445356</v>
+        <v>36</v>
       </c>
       <c r="Q17">
-        <v>2266</v>
+        <v>378</v>
       </c>
       <c r="R17">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -3335,42 +2951,30 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2100</v>
       </c>
       <c r="W17">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>77.73024155158105</v>
       </c>
       <c r="Y17">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>77.73024155158105</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:31">
+    <row r="18" spans="3:27">
       <c r="C18" s="1">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3382,19 +2986,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10134</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9747</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3427,39 +3031,27 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>4140</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>18</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>4</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="1">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3471,19 +3063,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>91.88503037446732</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1269380723547013</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.670958382446278</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>88.37609937437665</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3516,30 +3108,18 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>37.5374013963188</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.009067005168192945</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.163206093027473</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0.03626802067277178</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
         <v>0</v>
       </c>
     </row>
